--- a/sputnik/personal/ee/57ee.xlsx
+++ b/sputnik/personal/ee/57ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,20 +36,32 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата</t>
-  </si>
-  <si>
-    <t>оплачено 1970,63, начислено по показаниям 1971,39 , доплатить 0,76 коп.</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +92,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,76 +124,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -210,7 +141,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,38 +150,11 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -312,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,10 +248,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,7 +282,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -555,17 +457,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -573,352 +475,256 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
       <c r="A2" s="4">
-        <v>43253</v>
+        <v>43330</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1228</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>1396</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>769</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="4">
-        <v>43330</v>
+        <v>43541</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>1396</v>
+        <v>1700</v>
       </c>
       <c r="D4" s="3">
         <f>C4-C2</f>
-        <v>168</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.5</v>
+        <v>304</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
         <f>D4*E4</f>
-        <v>756</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1389.2800000000002</v>
+      </c>
+      <c r="G4" s="6">
+        <f>SUM(F4,F5)</f>
+        <v>1919.8600000000001</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>769</v>
+        <v>991</v>
       </c>
       <c r="D5" s="3">
         <f>C5-C3</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.35</v>
+        <v>222</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
         <f>D5*E5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>530.58000000000004</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1">
       <c r="A6" s="4">
-        <v>43541</v>
+        <v>43627</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>1700</v>
+        <v>2009</v>
       </c>
       <c r="D6" s="3">
         <f>C6-C4</f>
-        <v>304</v>
-      </c>
-      <c r="E6" s="17">
+        <v>309</v>
+      </c>
+      <c r="E6" s="9">
         <v>4.57</v>
       </c>
       <c r="F6" s="6">
         <f>D6*E6</f>
-        <v>1389.2800000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1412.13</v>
+      </c>
+      <c r="G6" s="6">
+        <f>SUM(F6,F7)</f>
+        <v>1971.39</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1970.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>991</v>
+        <v>1225</v>
       </c>
       <c r="D7" s="3">
         <f>C7-C5</f>
-        <v>222</v>
-      </c>
-      <c r="E7" s="18">
+        <v>234</v>
+      </c>
+      <c r="E7" s="10">
         <v>2.39</v>
       </c>
       <c r="F7" s="6">
         <f>D7*E7</f>
-        <v>530.58000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8"/>
+        <v>559.26</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A8" s="4">
+        <v>43843</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2997</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8-C6</f>
+        <v>988</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4.49</v>
+      </c>
       <c r="F8" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43627</v>
-      </c>
+        <f>D8*E8</f>
+        <v>4436.12</v>
+      </c>
+      <c r="G8" s="6">
+        <f>SUM(F8,F9)</f>
+        <v>5923.28</v>
+      </c>
+      <c r="H8" s="6">
+        <v>5977.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>2009</v>
+        <v>1837</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C6</f>
-        <v>309</v>
-      </c>
-      <c r="E9" s="17">
-        <v>4.57</v>
+        <f>C9-C7</f>
+        <v>612</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
         <f>D9*E9</f>
-        <v>1412.13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1487.16</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1225</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-C7</f>
-        <v>234</v>
-      </c>
-      <c r="E10" s="18">
-        <v>2.39</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>559.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="19" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="G10" s="6">
+        <f>SUM(G4:G9)</f>
+        <v>9814.5299999999988</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(H4:H9)</f>
+        <v>9868.4700000000012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43843</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2997</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C9</f>
-        <v>988</v>
-      </c>
-      <c r="E12" s="17">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>4436.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1837</v>
-      </c>
-      <c r="D13" s="3">
-        <f>C13-C10</f>
-        <v>612</v>
-      </c>
-      <c r="E13" s="18">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
-        <v>1487.16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <f>SUM(H10,-G10)</f>
+        <v>53.940000000002328</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B11:D11"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -926,12 +732,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -940,12 +746,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/57ee.xlsx
+++ b/sputnik/personal/ee/57ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -57,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,9 +248,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -457,7 +459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -467,7 +469,7 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -482,7 +484,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -508,7 +510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43330</v>
       </c>
@@ -524,7 +526,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -538,7 +540,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43541</v>
       </c>
@@ -549,14 +551,14 @@
         <v>1700</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C2</f>
+        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
         <v>304</v>
       </c>
       <c r="E4" s="9">
         <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>1389.2800000000002</v>
       </c>
       <c r="G4" s="6">
@@ -567,7 +569,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -576,20 +578,20 @@
         <v>991</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C3</f>
+        <f t="shared" si="0"/>
         <v>222</v>
       </c>
       <c r="E5" s="10">
         <v>2.39</v>
       </c>
       <c r="F5" s="6">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>530.58000000000004</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43627</v>
       </c>
@@ -600,14 +602,14 @@
         <v>2009</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C4</f>
+        <f t="shared" si="0"/>
         <v>309</v>
       </c>
       <c r="E6" s="9">
         <v>4.57</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>1412.13</v>
       </c>
       <c r="G6" s="6">
@@ -618,7 +620,7 @@
         <v>1970.63</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -627,20 +629,20 @@
         <v>1225</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C5</f>
+        <f t="shared" si="0"/>
         <v>234</v>
       </c>
       <c r="E7" s="10">
         <v>2.39</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>559.26</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43843</v>
       </c>
@@ -651,14 +653,14 @@
         <v>2997</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C6</f>
+        <f t="shared" si="0"/>
         <v>988</v>
       </c>
       <c r="E8" s="9">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>4436.12</v>
       </c>
       <c r="G8" s="6">
@@ -669,7 +671,7 @@
         <v>5977.84</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -678,20 +680,20 @@
         <v>1837</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C7</f>
+        <f t="shared" si="0"/>
         <v>612</v>
       </c>
       <c r="E9" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="1"/>
         <v>1487.16</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -709,7 +711,7 @@
         <v>9868.4700000000012</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -732,12 +734,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -746,12 +748,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/57ee.xlsx
+++ b/sputnik/personal/ee/57ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -694,35 +694,86 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
+      <c r="A10" s="4">
+        <v>43984</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4004</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
+        <v>1007</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
+        <v>4521.43</v>
+      </c>
+      <c r="G10" s="6">
+        <f>SUM(F10,F11)</f>
+        <v>7349.9500000000007</v>
+      </c>
+      <c r="H10" s="6">
+        <v>7349.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3001</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>1164</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="3"/>
+        <v>2828.52</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="6">
-        <f>SUM(G4:G9)</f>
-        <v>9814.5299999999988</v>
-      </c>
-      <c r="H10" s="6">
-        <f>SUM(H4:H9)</f>
-        <v>9868.4700000000012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6" t="s">
+      <c r="G12" s="6">
+        <f>SUM(G4:G11)</f>
+        <v>17164.48</v>
+      </c>
+      <c r="H12" s="6">
+        <f>SUM(H4:H11)</f>
+        <v>17218.420000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6">
-        <f>SUM(H10,-G10)</f>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
+        <f>SUM(H12,-G12)</f>
         <v>53.940000000002328</v>
       </c>
     </row>

--- a/sputnik/personal/ee/57ee.xlsx
+++ b/sputnik/personal/ee/57ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>нач пени 140 дн</t>
   </si>
 </sst>
 </file>
@@ -61,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +94,21 @@
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -128,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -154,6 +175,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -745,36 +778,60 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="6">
-        <f>SUM(G4:G11)</f>
-        <v>17164.48</v>
-      </c>
-      <c r="H12" s="6">
-        <f>SUM(H4:H11)</f>
-        <v>17218.420000000002</v>
-      </c>
+      <c r="A12" s="11">
+        <v>43984</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>735</v>
+      </c>
+      <c r="G12" s="14">
+        <v>735</v>
+      </c>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6">
+        <f>SUM(G4:G12)</f>
+        <v>17899.48</v>
+      </c>
+      <c r="H13" s="6">
+        <f>SUM(H4:H12)</f>
+        <v>17218.420000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
-        <f>SUM(H12,-G12)</f>
-        <v>53.940000000002328</v>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
+        <f>SUM(H13,-G13)</f>
+        <v>-681.05999999999767</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/57ee.xlsx
+++ b/sputnik/personal/ee/57ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -802,36 +802,111 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6" t="s">
+      <c r="A13" s="4">
+        <v>44064</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4587</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13-C10</f>
+        <v>583</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ref="F13:F14" si="4">D13*E13</f>
+        <v>2745.93</v>
+      </c>
+      <c r="G13" s="6">
+        <f>SUM(F13,F14)</f>
+        <v>3401.2799999999997</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2039.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3258</v>
+      </c>
+      <c r="D14" s="3">
+        <f>C14-C11</f>
+        <v>257</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="4"/>
+        <v>655.34999999999991</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44064</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
+        <v>681.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="6">
-        <f>SUM(G4:G12)</f>
-        <v>17899.48</v>
-      </c>
-      <c r="H13" s="6">
-        <f>SUM(H4:H12)</f>
-        <v>17218.420000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6" t="s">
+      <c r="G16" s="6">
+        <f>SUM(G4:G15)</f>
+        <v>21300.76</v>
+      </c>
+      <c r="H16" s="6">
+        <f>SUM(H4:H15)</f>
+        <v>19938.640000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
-        <f>SUM(H13,-G13)</f>
-        <v>-681.05999999999767</v>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
+        <f>SUM(H16,-G16)</f>
+        <v>-1362.1199999999953</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/57ee.xlsx
+++ b/sputnik/personal/ee/57ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H15" sqref="H13:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -877,35 +877,86 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6" t="s">
+      <c r="A16" s="4">
+        <v>44118</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5020</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16-C13</f>
+        <v>433</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
+        <v>2039.43</v>
+      </c>
+      <c r="G16" s="6">
+        <f>SUM(F16,F17)</f>
+        <v>2804.4300000000003</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2804.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3558</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C17-C14</f>
+        <v>300</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="5"/>
+        <v>765</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="6">
-        <f>SUM(G4:G15)</f>
-        <v>21300.76</v>
-      </c>
-      <c r="H16" s="6">
-        <f>SUM(H4:H15)</f>
-        <v>19938.640000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6" t="s">
+      <c r="G18" s="6">
+        <f>SUM(G4:G16)</f>
+        <v>24105.19</v>
+      </c>
+      <c r="H18" s="6">
+        <f>SUM(H4:H16)</f>
+        <v>22743.070000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
+        <f>SUM(H18,-G18)</f>
         <v>-1362.1199999999953</v>
       </c>
     </row>

--- a/sputnik/personal/ee/57ee.xlsx
+++ b/sputnik/personal/ee/57ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15.12.2020.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 20.11.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -103,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,11 +126,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -150,6 +163,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -430,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,14 +527,14 @@
         <v>1700</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C2)</f>
+        <f t="shared" ref="D4:D11" si="0">SUM(C4,-C2)</f>
         <v>304</v>
       </c>
       <c r="E4" s="3">
         <v>4.57</v>
       </c>
       <c r="F4" s="8">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F11" si="1">D4*E4</f>
         <v>1389.2800000000002</v>
       </c>
       <c r="G4" s="8">
@@ -540,14 +554,14 @@
         <v>991</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C3)</f>
+        <f t="shared" si="0"/>
         <v>222</v>
       </c>
       <c r="E5" s="3">
         <v>2.39</v>
       </c>
       <c r="F5" s="8">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>530.58000000000004</v>
       </c>
       <c r="G5" s="3"/>
@@ -564,14 +578,14 @@
         <v>2009</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" si="0"/>
         <v>309</v>
       </c>
       <c r="E6" s="3">
         <v>4.57</v>
       </c>
       <c r="F6" s="8">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>1412.13</v>
       </c>
       <c r="G6" s="8">
@@ -591,14 +605,14 @@
         <v>1225</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="0"/>
         <v>234</v>
       </c>
       <c r="E7" s="3">
         <v>2.39</v>
       </c>
       <c r="F7" s="8">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>559.26</v>
       </c>
       <c r="G7" s="3"/>
@@ -615,14 +629,14 @@
         <v>2997</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(C8,-C6)</f>
+        <f t="shared" si="0"/>
         <v>988</v>
       </c>
       <c r="E8" s="3">
         <v>4.49</v>
       </c>
       <c r="F8" s="8">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>4436.12</v>
       </c>
       <c r="G8" s="8">
@@ -642,14 +656,14 @@
         <v>1837</v>
       </c>
       <c r="D9" s="3">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="0"/>
         <v>612</v>
       </c>
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="8">
-        <f>D9*E9</f>
+        <f t="shared" si="1"/>
         <v>1487.16</v>
       </c>
       <c r="G9" s="3"/>
@@ -666,14 +680,14 @@
         <v>4004</v>
       </c>
       <c r="D10" s="3">
-        <f>SUM(C10,-C8)</f>
+        <f t="shared" si="0"/>
         <v>1007</v>
       </c>
       <c r="E10" s="3">
         <v>4.49</v>
       </c>
       <c r="F10" s="8">
-        <f>D10*E10</f>
+        <f t="shared" si="1"/>
         <v>4521.43</v>
       </c>
       <c r="G10" s="8">
@@ -693,14 +707,14 @@
         <v>3001</v>
       </c>
       <c r="D11" s="3">
-        <f>SUM(C11,-C9)</f>
+        <f t="shared" si="0"/>
         <v>1164</v>
       </c>
       <c r="E11" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="8">
-        <f>D11*E11</f>
+        <f t="shared" si="1"/>
         <v>2828.52</v>
       </c>
       <c r="G11" s="3"/>
@@ -832,30 +846,121 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="G17" s="3">
-        <f>SUM(G2:G16)</f>
-        <v>24105.19</v>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44189</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5789</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM(C17,-C15)</f>
+        <v>769</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="8">
+        <f>D17*E17</f>
+        <v>3621.99</v>
+      </c>
+      <c r="G17" s="8">
+        <f>SUM(F17,F18)</f>
+        <v>4657.29</v>
       </c>
       <c r="H17" s="3">
-        <f>SUM(H2:H16)</f>
-        <v>22743.070000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+        <v>4583.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3964</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(C18,-C16)</f>
+        <v>406</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="8">
+        <f>D18*E18</f>
+        <v>1035.3</v>
+      </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <f>SUM(H17,-G17)</f>
-        <v>-1362.1199999999953</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>44189</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1362.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
+      <c r="G20" s="11">
+        <f>SUM(G2:G19)</f>
+        <v>28762.48</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM(H2:H19)</f>
+        <v>28688.530000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <f>SUM(H20,-G20)</f>
+        <v>-73.94999999999709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/57ee.xlsx
+++ b/sputnik/personal/ee/57ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15.12.2020.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 20.11.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 01.03.2021\01.02.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 15.02.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +762,7 @@
         <v>4.71</v>
       </c>
       <c r="F13" s="8">
-        <f>D13*E13</f>
+        <f t="shared" ref="F13:F18" si="2">D13*E13</f>
         <v>2745.93</v>
       </c>
       <c r="G13" s="8">
@@ -789,7 +789,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F14" s="8">
-        <f>D14*E14</f>
+        <f t="shared" si="2"/>
         <v>655.34999999999991</v>
       </c>
       <c r="G14" s="3"/>
@@ -813,7 +813,7 @@
         <v>4.71</v>
       </c>
       <c r="F15" s="8">
-        <f>D15*E15</f>
+        <f t="shared" si="2"/>
         <v>2039.43</v>
       </c>
       <c r="G15" s="8">
@@ -840,7 +840,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F16" s="8">
-        <f>D16*E16</f>
+        <f t="shared" si="2"/>
         <v>765</v>
       </c>
       <c r="G16" s="3"/>
@@ -864,7 +864,7 @@
         <v>4.71</v>
       </c>
       <c r="F17" s="8">
-        <f>D17*E17</f>
+        <f t="shared" si="2"/>
         <v>3621.99</v>
       </c>
       <c r="G17" s="8">
@@ -891,7 +891,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F18" s="8">
-        <f>D18*E18</f>
+        <f t="shared" si="2"/>
         <v>1035.3</v>
       </c>
       <c r="G18" s="3"/>
@@ -924,23 +924,55 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="G20" s="11">
-        <f>SUM(G2:G19)</f>
-        <v>28762.48</v>
-      </c>
-      <c r="H20" s="11">
-        <f>SUM(H2:H19)</f>
-        <v>28688.530000000002</v>
+      <c r="A20" s="4">
+        <v>44251</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>7422</v>
+      </c>
+      <c r="D20" s="3">
+        <f>SUM(C20,-C17)</f>
+        <v>1633</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="3">D20*E20</f>
+        <v>7691.43</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(F20,F21)</f>
+        <v>9634.5300000000007</v>
+      </c>
+      <c r="H20" s="3">
+        <v>9634.5300000000007</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4726</v>
+      </c>
+      <c r="D21" s="3">
+        <f>SUM(C21,-C18)</f>
+        <v>762</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="3"/>
+        <v>1943.1</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3">
-        <f>SUM(H20,-G20)</f>
-        <v>-73.94999999999709</v>
-      </c>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -949,8 +981,14 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="11">
+        <f>SUM(G2:G19)</f>
+        <v>28762.48</v>
+      </c>
+      <c r="H22" s="11">
+        <f>SUM(H2:H19)</f>
+        <v>28688.530000000002</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
@@ -959,8 +997,31 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <f>SUM(H22,-G22)</f>
+        <v>-73.94999999999709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/57ee.xlsx
+++ b/sputnik/personal/ee/57ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 01.03.2021\01.02.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 15.02.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,33 +975,55 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="11">
-        <f>SUM(G2:G19)</f>
-        <v>28762.48</v>
-      </c>
-      <c r="H22" s="11">
-        <f>SUM(H2:H19)</f>
-        <v>28688.530000000002</v>
+      <c r="A22" s="4">
+        <v>44320</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
+        <v>8560</v>
+      </c>
+      <c r="D22" s="3">
+        <f>SUM(C22,-C20)</f>
+        <v>1138</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="4">D22*E22</f>
+        <v>5359.98</v>
+      </c>
+      <c r="G22" s="8">
+        <f>SUM(F22,F23)</f>
+        <v>6910.3799999999992</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6910.38</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5334</v>
+      </c>
+      <c r="D23" s="3">
+        <f>SUM(C23,-C21)</f>
+        <v>608</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="4"/>
+        <v>1550.3999999999999</v>
+      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <f>SUM(H22,-G22)</f>
-        <v>-73.94999999999709</v>
-      </c>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
@@ -1010,8 +1032,14 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="11">
+        <f>SUM(G2:G23)</f>
+        <v>45307.39</v>
+      </c>
+      <c r="H24" s="11">
+        <f>SUM(H2:H23)</f>
+        <v>45233.440000000002</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
@@ -1020,8 +1048,31 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <f>SUM(H24,-G24)</f>
+        <v>-73.94999999999709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/57ee.xlsx
+++ b/sputnik/personal/ee/57ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -95,12 +95,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -143,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -162,8 +168,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -444,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +738,7 @@
       <c r="C12" s="9">
         <v>0</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="9">
@@ -765,11 +773,11 @@
         <f t="shared" ref="F13:F18" si="2">D13*E13</f>
         <v>2745.93</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="12">
         <f>SUM(F13,F14)</f>
         <v>3401.2799999999997</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="13">
         <v>2720.22</v>
       </c>
     </row>
@@ -1026,33 +1034,55 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="11">
-        <f>SUM(G2:G23)</f>
-        <v>45307.39</v>
-      </c>
-      <c r="H24" s="11">
-        <f>SUM(H2:H23)</f>
-        <v>45233.440000000002</v>
+      <c r="A24" s="4">
+        <v>44377</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9517</v>
+      </c>
+      <c r="D24" s="3">
+        <f>SUM(C24,-C22)</f>
+        <v>957</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F25" si="5">D24*E24</f>
+        <v>4507.47</v>
+      </c>
+      <c r="G24" s="8">
+        <f>SUM(F24,F25)</f>
+        <v>6050.22</v>
+      </c>
+      <c r="H24" s="3">
+        <v>6050.22</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5939</v>
+      </c>
+      <c r="D25" s="3">
+        <f>SUM(C25,-C23)</f>
+        <v>605</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="5"/>
+        <v>1542.75</v>
+      </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="3">
-        <f>SUM(H24,-G24)</f>
-        <v>-73.94999999999709</v>
-      </c>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -1061,8 +1091,14 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="10">
+        <f>SUM(G2:G25)</f>
+        <v>51357.61</v>
+      </c>
+      <c r="H26" s="10">
+        <f>SUM(H2:H25)</f>
+        <v>51283.66</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1071,8 +1107,31 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <f>SUM(H26,-G26)</f>
+        <v>-73.94999999999709</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/57ee.xlsx
+++ b/sputnik/personal/ee/57ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 15.10.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -84,7 +84,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +94,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -158,6 +164,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -438,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,31 +489,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44377</v>
+        <v>44494</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>9517</v>
+        <v>9863</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>957</v>
+        <v>346</v>
       </c>
       <c r="E2" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F5" si="1">D2*E2</f>
-        <v>4507.47</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>1716.16</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>6050.22</v>
+        <v>2244.12</v>
       </c>
       <c r="H2" s="3">
-        <v>6050.22</v>
+        <v>2244.12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -515,49 +522,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>5939</v>
+        <v>6136</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>605</v>
+        <v>197</v>
       </c>
       <c r="E3" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>1542.75</v>
+        <v>527.96</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>44320</v>
+      <c r="A4" s="11">
+        <v>44377</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>8560</v>
+        <v>9517</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C6)</f>
-        <v>1138</v>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
+        <v>957</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="1"/>
-        <v>5359.98</v>
+        <f t="shared" ref="F4:F7" si="3">D4*E4</f>
+        <v>4507.47</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>6910.3799999999992</v>
+        <v>6050.22</v>
       </c>
       <c r="H4" s="3">
-        <v>6910.38</v>
+        <v>6050.22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -566,37 +573,50 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>5334</v>
+        <v>5939</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C7)</f>
-        <v>608</v>
+        <f t="shared" si="2"/>
+        <v>605</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>1550.3999999999999</v>
+        <f t="shared" si="3"/>
+        <v>1542.75</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44251</v>
+        <v>44320</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>7422</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="3"/>
+        <v>8560</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(C6,-C8)</f>
+        <v>1138</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="3"/>
+        <v>5359.98</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(F6,F7)</f>
+        <v>6910.3799999999992</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6910.38</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -604,42 +624,51 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>4726</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="8"/>
+        <v>5334</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUM(C7,-C9)</f>
+        <v>608</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="3"/>
+        <v>1550.3999999999999</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="10">
-        <f>SUM(G2:G7)</f>
-        <v>12960.599999999999</v>
-      </c>
-      <c r="H8" s="10">
-        <f>SUM(H2:H7)</f>
-        <v>12960.6</v>
-      </c>
+      <c r="A8" s="4">
+        <v>44251</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7422</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4726</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="8">
-        <f>SUM(H8,-G8)</f>
-        <v>1.8189894035458565E-12</v>
-      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -648,8 +677,14 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="10">
+        <f>SUM(G4:G9)</f>
+        <v>12960.599999999999</v>
+      </c>
+      <c r="H10" s="10">
+        <f>SUM(H4:H9)</f>
+        <v>12960.6</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -658,8 +693,31 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8">
+        <f>SUM(H10,-G10)</f>
+        <v>1.8189894035458565E-12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
